--- a/resultados_concepts_selector/tabela_final.xlsx
+++ b/resultados_concepts_selector/tabela_final.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68ab3f4a40a4996c/TCC/RLLib_códigos/tcc-final-models/tcc-final-models/resultados_concepts_selector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE36E3EC-23EE-4EB1-B39C-7BE2FA835560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{CE36E3EC-23EE-4EB1-B39C-7BE2FA835560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7CDACF3-693E-43BE-A334-3B8A5A8E8E85}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela_final" sheetId="1" r:id="rId1"/>
@@ -52,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +184,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -530,9 +538,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -887,20 +896,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
@@ -925,11 +937,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2">
@@ -954,11 +966,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1.25</v>
       </c>
       <c r="C3">
@@ -983,11 +995,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1.5</v>
       </c>
       <c r="C4">
@@ -1012,11 +1024,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1.75</v>
       </c>
       <c r="C5">
@@ -1041,11 +1053,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6">
@@ -1070,11 +1082,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2.25</v>
       </c>
       <c r="C7">
@@ -1099,11 +1111,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8">
@@ -1128,11 +1140,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>1.25</v>
       </c>
       <c r="C9">
@@ -1156,12 +1168,13 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>1.5</v>
       </c>
       <c r="C10">
@@ -1186,11 +1199,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1.75</v>
       </c>
       <c r="C11">
@@ -1215,11 +1228,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12">
@@ -1244,11 +1257,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>2.25</v>
       </c>
       <c r="C13">
@@ -1273,11 +1286,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14">
@@ -1302,11 +1315,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>1.25</v>
       </c>
       <c r="C15">
@@ -1331,11 +1344,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1.5</v>
       </c>
       <c r="C16">
@@ -1364,7 +1377,7 @@
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>1.75</v>
       </c>
       <c r="C17">
@@ -1393,7 +1406,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>2</v>
       </c>
       <c r="C18">
@@ -1422,7 +1435,7 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>2.25</v>
       </c>
       <c r="C19">
@@ -1451,7 +1464,7 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20">
@@ -1480,7 +1493,7 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>1.25</v>
       </c>
       <c r="C21">
@@ -1509,7 +1522,7 @@
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>1.5</v>
       </c>
       <c r="C22">
@@ -1538,7 +1551,7 @@
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>1.75</v>
       </c>
       <c r="C23">
@@ -1567,7 +1580,7 @@
       <c r="A24">
         <v>18</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24">
@@ -1596,7 +1609,7 @@
       <c r="A25">
         <v>18</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>2.25</v>
       </c>
       <c r="C25">
@@ -1625,7 +1638,7 @@
       <c r="A26">
         <v>19</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26">
@@ -1654,7 +1667,7 @@
       <c r="A27">
         <v>19</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>1.25</v>
       </c>
       <c r="C27">
@@ -1683,7 +1696,7 @@
       <c r="A28">
         <v>19</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>1.5</v>
       </c>
       <c r="C28">
@@ -1712,7 +1725,7 @@
       <c r="A29">
         <v>19</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>1.75</v>
       </c>
       <c r="C29">
@@ -1741,7 +1754,7 @@
       <c r="A30">
         <v>19</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>2</v>
       </c>
       <c r="C30">
@@ -1770,7 +1783,7 @@
       <c r="A31">
         <v>19</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>2.25</v>
       </c>
       <c r="C31">
@@ -1799,7 +1812,7 @@
       <c r="A32">
         <v>20</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32">
@@ -1828,7 +1841,7 @@
       <c r="A33">
         <v>20</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>1.25</v>
       </c>
       <c r="C33">
@@ -1857,7 +1870,7 @@
       <c r="A34">
         <v>20</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>1.5</v>
       </c>
       <c r="C34">
@@ -1886,7 +1899,7 @@
       <c r="A35">
         <v>20</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>1.75</v>
       </c>
       <c r="C35">
@@ -1915,7 +1928,7 @@
       <c r="A36">
         <v>20</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>2</v>
       </c>
       <c r="C36">
@@ -1944,7 +1957,7 @@
       <c r="A37">
         <v>20</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>2.25</v>
       </c>
       <c r="C37">
@@ -1973,7 +1986,7 @@
       <c r="A38">
         <v>21</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="C38">
@@ -2002,7 +2015,7 @@
       <c r="A39">
         <v>21</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>1.25</v>
       </c>
       <c r="C39">
@@ -2031,7 +2044,7 @@
       <c r="A40">
         <v>21</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>1.5</v>
       </c>
       <c r="C40">
@@ -2060,7 +2073,7 @@
       <c r="A41">
         <v>21</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>1.75</v>
       </c>
       <c r="C41">
@@ -2089,7 +2102,7 @@
       <c r="A42">
         <v>21</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>2</v>
       </c>
       <c r="C42">
@@ -2118,7 +2131,7 @@
       <c r="A43">
         <v>21</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>2.25</v>
       </c>
       <c r="C43">
@@ -2147,7 +2160,7 @@
       <c r="A44">
         <v>22</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>1</v>
       </c>
       <c r="C44">
@@ -2176,7 +2189,7 @@
       <c r="A45">
         <v>22</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>1.25</v>
       </c>
       <c r="C45">
@@ -2205,7 +2218,7 @@
       <c r="A46">
         <v>22</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>1.5</v>
       </c>
       <c r="C46">
@@ -2234,7 +2247,7 @@
       <c r="A47">
         <v>22</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>1.75</v>
       </c>
       <c r="C47">
@@ -2263,7 +2276,7 @@
       <c r="A48">
         <v>22</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>2</v>
       </c>
       <c r="C48">
@@ -2292,7 +2305,7 @@
       <c r="A49">
         <v>22</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>2.25</v>
       </c>
       <c r="C49">
@@ -2321,7 +2334,7 @@
       <c r="A50">
         <v>23</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>1</v>
       </c>
       <c r="C50">
@@ -2350,7 +2363,7 @@
       <c r="A51">
         <v>23</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>1.25</v>
       </c>
       <c r="C51">
@@ -2379,7 +2392,7 @@
       <c r="A52">
         <v>23</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>1.5</v>
       </c>
       <c r="C52">
@@ -2408,7 +2421,7 @@
       <c r="A53">
         <v>23</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>1.75</v>
       </c>
       <c r="C53">
@@ -2437,7 +2450,7 @@
       <c r="A54">
         <v>23</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>2</v>
       </c>
       <c r="C54">
@@ -2466,7 +2479,7 @@
       <c r="A55">
         <v>23</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>2.25</v>
       </c>
       <c r="C55">
@@ -2495,7 +2508,7 @@
       <c r="A56">
         <v>24</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>1</v>
       </c>
       <c r="C56">
@@ -2524,7 +2537,7 @@
       <c r="A57">
         <v>24</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>1.25</v>
       </c>
       <c r="C57">
@@ -2553,7 +2566,7 @@
       <c r="A58">
         <v>24</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>1.5</v>
       </c>
       <c r="C58">
@@ -2582,7 +2595,7 @@
       <c r="A59">
         <v>24</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>1.75</v>
       </c>
       <c r="C59">
@@ -2611,7 +2624,7 @@
       <c r="A60">
         <v>24</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>2</v>
       </c>
       <c r="C60">
@@ -2640,7 +2653,7 @@
       <c r="A61">
         <v>24</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>2.25</v>
       </c>
       <c r="C61">
@@ -2669,7 +2682,7 @@
       <c r="A62">
         <v>25</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>1</v>
       </c>
       <c r="C62">
@@ -2698,7 +2711,7 @@
       <c r="A63">
         <v>25</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>1.25</v>
       </c>
       <c r="C63">
@@ -2727,7 +2740,7 @@
       <c r="A64">
         <v>25</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>1.5</v>
       </c>
       <c r="C64">
@@ -2756,7 +2769,7 @@
       <c r="A65">
         <v>25</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>1.75</v>
       </c>
       <c r="C65">
@@ -2785,7 +2798,7 @@
       <c r="A66">
         <v>25</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>2</v>
       </c>
       <c r="C66">
@@ -2814,7 +2827,7 @@
       <c r="A67">
         <v>25</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>2.25</v>
       </c>
       <c r="C67">
@@ -2843,7 +2856,7 @@
       <c r="A68">
         <v>26</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>1</v>
       </c>
       <c r="C68">
@@ -2872,7 +2885,7 @@
       <c r="A69">
         <v>26</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>1.25</v>
       </c>
       <c r="C69">
@@ -2901,7 +2914,7 @@
       <c r="A70">
         <v>26</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>1.5</v>
       </c>
       <c r="C70">
@@ -2930,7 +2943,7 @@
       <c r="A71">
         <v>26</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>1.75</v>
       </c>
       <c r="C71">
@@ -2959,7 +2972,7 @@
       <c r="A72">
         <v>26</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>2</v>
       </c>
       <c r="C72">
@@ -2988,7 +3001,7 @@
       <c r="A73">
         <v>26</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>2.25</v>
       </c>
       <c r="C73">
@@ -3017,7 +3030,7 @@
       <c r="A74">
         <v>27</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>1</v>
       </c>
       <c r="C74">
@@ -3046,7 +3059,7 @@
       <c r="A75">
         <v>27</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>1.25</v>
       </c>
       <c r="C75">
@@ -3075,7 +3088,7 @@
       <c r="A76">
         <v>27</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>1.5</v>
       </c>
       <c r="C76">
@@ -3104,7 +3117,7 @@
       <c r="A77">
         <v>27</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>1.75</v>
       </c>
       <c r="C77">
@@ -3133,7 +3146,7 @@
       <c r="A78">
         <v>27</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>2</v>
       </c>
       <c r="C78">
@@ -3162,7 +3175,7 @@
       <c r="A79">
         <v>27</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>2.25</v>
       </c>
       <c r="C79">
@@ -3191,7 +3204,7 @@
       <c r="A80">
         <v>28</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>1</v>
       </c>
       <c r="C80">
@@ -3220,7 +3233,7 @@
       <c r="A81">
         <v>28</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>1.25</v>
       </c>
       <c r="C81">
@@ -3249,7 +3262,7 @@
       <c r="A82">
         <v>28</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>1.5</v>
       </c>
       <c r="C82">
@@ -3278,7 +3291,7 @@
       <c r="A83">
         <v>28</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>1.75</v>
       </c>
       <c r="C83">
@@ -3307,7 +3320,7 @@
       <c r="A84">
         <v>28</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>2</v>
       </c>
       <c r="C84">
@@ -3336,7 +3349,7 @@
       <c r="A85">
         <v>28</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>2.25</v>
       </c>
       <c r="C85">
@@ -3365,7 +3378,7 @@
       <c r="A86">
         <v>29</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>1</v>
       </c>
       <c r="C86">
@@ -3394,7 +3407,7 @@
       <c r="A87">
         <v>29</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>1.25</v>
       </c>
       <c r="C87">
@@ -3423,7 +3436,7 @@
       <c r="A88">
         <v>29</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>1.5</v>
       </c>
       <c r="C88">
@@ -3452,7 +3465,7 @@
       <c r="A89">
         <v>29</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>1.75</v>
       </c>
       <c r="C89">
@@ -3481,7 +3494,7 @@
       <c r="A90">
         <v>29</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>2</v>
       </c>
       <c r="C90">
@@ -3510,7 +3523,7 @@
       <c r="A91">
         <v>29</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>2.25</v>
       </c>
       <c r="C91">
@@ -3539,7 +3552,7 @@
       <c r="A92">
         <v>30</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>1</v>
       </c>
       <c r="C92">
@@ -3568,7 +3581,7 @@
       <c r="A93">
         <v>30</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>1.25</v>
       </c>
       <c r="C93">
@@ -3597,7 +3610,7 @@
       <c r="A94">
         <v>30</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>1.5</v>
       </c>
       <c r="C94">
@@ -3626,7 +3639,7 @@
       <c r="A95">
         <v>30</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>1.75</v>
       </c>
       <c r="C95">
@@ -3655,7 +3668,7 @@
       <c r="A96">
         <v>30</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>2</v>
       </c>
       <c r="C96">
@@ -3684,7 +3697,7 @@
       <c r="A97">
         <v>30</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>2.25</v>
       </c>
       <c r="C97">
@@ -3711,5 +3724,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>